--- a/LinearOptParams.xlsx
+++ b/LinearOptParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Matlab\MATLAB Production Server\R2015a\bin\Gouldii_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68BC37F6-81AF-4C31-877A-A37100BF8B73}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D6465E7-A0BB-494B-94C4-02C196705641}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{1402D64A-4B9B-436C-A01F-BF29E2066E78}"/>
   </bookViews>
@@ -30,6 +30,9 @@
     <t>Optimal Results:</t>
   </si>
   <si>
+    <t>ContangoEntry = 0.080</t>
+  </si>
+  <si>
     <t>Contango30Entry = 0.100</t>
   </si>
   <si>
@@ -45,19 +48,16 @@
     <t>LongContango30Entry = 0.000</t>
   </si>
   <si>
-    <t>ContangoEntry = 0.080</t>
-  </si>
-  <si>
-    <t>MaxDD = 0.350</t>
-  </si>
-  <si>
-    <t>NetProfit = 27427625.0</t>
-  </si>
-  <si>
-    <t>SharpeRatio = 1.301</t>
-  </si>
-  <si>
-    <t>AnnualizedReturn = 0.509</t>
+    <t>MaxDD = 0.914</t>
+  </si>
+  <si>
+    <t>NetProfit = 45285822.7</t>
+  </si>
+  <si>
+    <t>SharpeRatio = 0.800</t>
+  </si>
+  <si>
+    <t>AnnualizedReturn = 0.598</t>
   </si>
 </sst>
 </file>
@@ -424,32 +424,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">

--- a/LinearOptParams.xlsx
+++ b/LinearOptParams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Matlab\MATLAB Production Server\R2015a\bin\Gouldii_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D6465E7-A0BB-494B-94C4-02C196705641}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B68C5-B4F1-4A78-A6B9-F2FDB2DBD6EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{1402D64A-4B9B-436C-A01F-BF29E2066E78}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7845" xr2:uid="{1402D64A-4B9B-436C-A01F-BF29E2066E78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,34 +30,34 @@
     <t>Optimal Results:</t>
   </si>
   <si>
-    <t>ContangoEntry = 0.080</t>
-  </si>
-  <si>
-    <t>Contango30Entry = 0.100</t>
-  </si>
-  <si>
-    <t>ContangoExit = 0.035</t>
-  </si>
-  <si>
-    <t>Contango30Exit = 0.100</t>
-  </si>
-  <si>
-    <t>LongContangoEntry = -0.050</t>
-  </si>
-  <si>
-    <t>LongContango30Entry = 0.000</t>
-  </si>
-  <si>
-    <t>MaxDD = 0.914</t>
-  </si>
-  <si>
-    <t>NetProfit = 45285822.7</t>
-  </si>
-  <si>
-    <t>SharpeRatio = 0.800</t>
-  </si>
-  <si>
-    <t>AnnualizedReturn = 0.598</t>
+    <t>ParameterF = 0.000</t>
+  </si>
+  <si>
+    <t>ParameterE = 0.000</t>
+  </si>
+  <si>
+    <t>ParameterA = 0.120</t>
+  </si>
+  <si>
+    <t>ParameterB = 0.050</t>
+  </si>
+  <si>
+    <t>ParameterC = -0.100</t>
+  </si>
+  <si>
+    <t>ParameterD = -0.100</t>
+  </si>
+  <si>
+    <t>MaxDD = 0.338</t>
+  </si>
+  <si>
+    <t>NetProfit = 34504303.6</t>
+  </si>
+  <si>
+    <t>SharpeRatio = 1.389</t>
+  </si>
+  <si>
+    <t>AnnualizedReturn = 0.998</t>
   </si>
 </sst>
 </file>
@@ -415,59 +415,59 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
